--- a/work_with_prepared_data/datas/control/08.10.2021_p32_прострел.xlsx
+++ b/work_with_prepared_data/datas/control/08.10.2021_p32_прострел.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Scripts\neuro_stats\work_with_prepared_data\datas\control\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\neuro_stats\work_with_prepared_data\datas\control\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9BBBA78-5570-4350-B191-6B312D9264D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17505" windowHeight="9165"/>
+    <workbookView xWindow="12600" yWindow="1470" windowWidth="14490" windowHeight="12750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -50,9 +51,6 @@
     <t>15 сут. - 3.11</t>
   </si>
   <si>
-    <t>p = 32 гр.</t>
-  </si>
-  <si>
     <t>20 сут. - 8.11</t>
   </si>
   <si>
@@ -234,12 +232,15 @@
   </si>
   <si>
     <t>3,8 - 3,1 - 1,2</t>
+  </si>
+  <si>
+    <t>p = 32 Гр.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -285,7 +286,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -562,11 +563,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,7 +584,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -609,155 +610,155 @@
         <v>7</v>
       </c>
       <c r="H2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
         <v>9</v>
-      </c>
-      <c r="I2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -765,57 +766,57 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
